--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:47:29</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:48:18</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:45:23</t>
   </si>
   <si>
     <t>2016-01-08 11:46:25</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 11:47:42</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:48:39</t>
+  </si>
+  <si>
+    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 11:45:37</t>
   </si>
   <si>
     <t>2016-01-08 11:46:46</t>
-  </si>
-  <si>
-    <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:47:29</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:48:18</t>
+    <t>2016-01-08 11:49:20</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:50:08</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>175b4d79-3667-47f9-a108-49103b0a3086.0c32bb012f9794161e918237996a415e371ef29b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 11:47:42</t>
-  </si>
-  <si>
-    <t>2016-01-08 11:48:39</t>
+    <t>2016-01-08 11:49:33</t>
+  </si>
+  <si>
+    <t>2016-01-08 11:50:29</t>
   </si>
   <si>
     <t>c1775312-ebdb-49c5-82dc-6312cb165ef6.aece7cc6cae98eeb6be0fca0cc7739ae6e6bcde6.de-de.xlf</t>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 13:33:22</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:34:12</t>
+  </si>
+  <si>
     <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:33:35</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:34:33</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:33:22</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:34:12</t>
+    <t>2016-01-08 13:35:13</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:36:00</t>
   </si>
   <si>
     <t>2a905917-fe93-47f9-a1c7-24e20c74b9be.9c293b0ff47929c2311c7902f3f44207f776b72b.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>d51fb795-185f-45f2-b89c-86e490bdf05b.bb27ae640062778048b2418efdfb435835c08c9f.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 13:33:35</t>
-  </si>
-  <si>
-    <t>2016-01-08 13:34:33</t>
+    <t>2016-01-08 13:35:26</t>
+  </si>
+  <si>
+    <t>2016-01-08 13:36:22</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:17:44</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:18:47</t>
+  </si>
+  <si>
     <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:17:59</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:19:09</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:17:44</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:18:47</t>
+    <t>2016-01-08 14:19:46</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:20:34</t>
   </si>
   <si>
     <t>06411bf0-3ebe-448e-9f10-544ae7f41ceb.36c75523f70ff0cb295fa9a5ebe2e9dc9fa338c5.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>5fe91086-255c-4682-9774-a18afabf88ac.c9c4f6a6822cdeaf3691256efb8d67be3521beed.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:17:59</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:19:09</t>
+    <t>2016-01-08 14:20:00</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:20:56</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:28:38</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:29:29</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 14:26:31</t>
   </si>
   <si>
     <t>2016-01-08 14:27:33</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 14:28:52</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:29:52</t>
+  </si>
+  <si>
+    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-08 14:26:45</t>
   </si>
   <si>
     <t>2016-01-08 14:27:56</t>
-  </si>
-  <si>
-    <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:28:38</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:29:29</t>
+    <t>2016-01-08 14:30:46</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:31:54</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>53c9dd87-9eb1-4248-aecd-c73be98fef3c.bacd708eae0fd5a27b6d0a9273ec2e18c6b2cc12.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 14:28:52</t>
-  </si>
-  <si>
-    <t>2016-01-08 14:29:52</t>
+    <t>2016-01-08 14:31:00</t>
+  </si>
+  <si>
+    <t>2016-01-08 14:32:16</t>
   </si>
   <si>
     <t>9afcfc7c-5f1b-416f-a7e3-c731c38e661d.020c6830f98f5756493e16d2d8a9e895c4be6e0f.de-de.xlf</t>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -76,6 +76,12 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-08 15:25:50</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:26:54</t>
+  </si>
+  <si>
     <t>1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf</t>
   </si>
   <si>
@@ -86,6 +92,12 @@
   </si>
   <si>
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:26:05</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:27:17</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -76,10 +76,10 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:25:50</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:26:54</t>
+    <t>2016-01-08 15:27:54</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:28:43</t>
   </si>
   <si>
     <t>1040d3c8-b286-49fe-b84b-360af021cc04.42b36e6463acfeb9eaf13c93dba36098fb585622.de-de.xlf</t>
@@ -94,10 +94,10 @@
     <t>629e121d-9986-4cbd-a3f7-576432f1d3cc.88cdc26516c522a2ba95de41fd60c4412b68db3b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-08 15:26:05</t>
-  </si>
-  <si>
-    <t>2016-01-08 15:27:17</t>
+    <t>2016-01-08 15:28:08</t>
+  </si>
+  <si>
+    <t>2016-01-08 15:29:07</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 02:41:55</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:43:05</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 02:39:32</t>
   </si>
   <si>
     <t>2016-01-11 02:40:36</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 02:42:11</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:43:29</t>
+  </si>
+  <si>
+    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 02:39:49</t>
   </si>
   <si>
     <t>2016-01-11 02:41:04</t>
-  </si>
-  <si>
-    <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:41:55</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:43:05</t>
+    <t>2016-01-11 02:44:19</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:45:09</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>84296453-8f3b-4ef7-a19a-fd148ba9e365.8d3e3d195b02f0de15ae16225fa55be6e504881b.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 02:42:11</t>
-  </si>
-  <si>
-    <t>2016-01-11 02:43:29</t>
+    <t>2016-01-11 02:44:33</t>
+  </si>
+  <si>
+    <t>2016-01-11 02:45:32</t>
   </si>
   <si>
     <t>e8b00593-0154-4cac-b80a-6b226cc19621.24661cfc740e88207fe0cbbd5891ee4d0f2f8794.de-de.xlf</t>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 03:00:27</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:01:36</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 02:58:02</t>
   </si>
   <si>
     <t>2016-01-11 02:59:06</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 03:00:43</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:02:00</t>
+  </si>
+  <si>
+    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 02:58:18</t>
   </si>
   <si>
     <t>2016-01-11 02:59:33</t>
-  </si>
-  <si>
-    <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:00:27</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:01:36</t>
+    <t>2016-01-11 03:02:54</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:04:00</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>14a3b362-714d-4008-932b-2d15393f2e8c.309b9c75701238e0f13f0b6d6ff1d0e54ec7fc20.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:00:43</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:02:00</t>
+    <t>2016-01-11 03:03:10</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:04:28</t>
   </si>
   <si>
     <t>19475d89-b2f9-4755-80cd-2a4b0b5bc60b.7e9476bff00c09becf09204d572d6069dc778efd.de-de.xlf</t>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>File Name</t>
   </si>
@@ -64,28 +64,40 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 03:42:29</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:43:34</t>
+  </si>
+  <si>
+    <t>Include</t>
+  </si>
+  <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 03:39:51</t>
   </si>
   <si>
     <t>2016-01-11 03:41:02</t>
   </si>
   <si>
-    <t>Include</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
   </si>
   <si>
+    <t>2016-01-11 03:42:48</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:44:01</t>
+  </si>
+  <si>
+    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
+  </si>
+  <si>
     <t>2016-01-11 03:40:08</t>
   </si>
   <si>
     <t>2016-01-11 03:41:29</t>
-  </si>
-  <si>
-    <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -331,7 +343,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
@@ -340,7 +352,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>
@@ -420,19 +432,19 @@
         <v>4</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H2" s="0" t="s">
         <v>18</v>
@@ -446,19 +458,19 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="H3" s="0" t="s">
         <v>18</v>

--- a/ol-handback/oltest/xinjiang/handback-status.xlsx
+++ b/ol-handback/oltest/xinjiang/handback-status.xlsx
@@ -64,10 +64,10 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:42:29</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:43:34</t>
+    <t>2016-01-11 03:44:53</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:46:17</t>
   </si>
   <si>
     <t>Include</t>
@@ -85,10 +85,10 @@
     <t>1c9b1662-28ba-4c27-9645-463ee3c9dc71.3b1d1b2107b976dc0f6861e4da14db54ecf15bd7.de-de.xlf</t>
   </si>
   <si>
-    <t>2016-01-11 03:42:48</t>
-  </si>
-  <si>
-    <t>2016-01-11 03:44:01</t>
+    <t>2016-01-11 03:45:17</t>
+  </si>
+  <si>
+    <t>2016-01-11 03:46:54</t>
   </si>
   <si>
     <t>a9d6742e-7d4c-4504-a071-49a62fa8d0b9.403b532d8323f11c3af5ccf1b83b3ff6487b832a.de-de.xlf</t>
